--- a/medicine/Mort/Cimetière_Saint-Acheul/Cimetière_Saint-Acheul.xlsx
+++ b/medicine/Mort/Cimetière_Saint-Acheul/Cimetière_Saint-Acheul.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_Saint-Acheul</t>
+          <t>Cimetière_Saint-Acheul</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière Saint–Acheul est situé au sud-est de la ville d’Amiens dans le quartier de Saint-Acheul, l'antique plaine Abladène où, selon la tradition, saint Firmin et saint Acheul subirent le martyre. Il est composé de trois entités.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_Saint-Acheul</t>
+          <t>Cimetière_Saint-Acheul</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Le cimetière Saint-Acheul ancien</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>D’une superficie de 6,8 ha, il a été créé en 1863, rassemble environ 10 000 concessions et un columbarium dans un espace arboré.
-C’est un cimetière paysager aux allées arborées souvent courbes, moins prestigieux que le cimetière de La Madeleine, il abrite néanmoins un certain nombre de sépultures de notables amiénois et de tombes remarquables, parmi lesquelles[1] :
+C’est un cimetière paysager aux allées arborées souvent courbes, moins prestigieux que le cimetière de La Madeleine, il abrite néanmoins un certain nombre de sépultures de notables amiénois et de tombes remarquables, parmi lesquelles :
 Anatole Bienaimé (1848-1911), architecte;
 Jean Catelas (1894-1941), député communiste de la Somme, exécuté, (médaillon);
 Victor Commont (1866-1918), géologue et préhistorien;
@@ -547,7 +561,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_Saint-Acheul</t>
+          <t>Cimetière_Saint-Acheul</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -565,55 +579,129 @@
           <t>La nécropole nationale de Saint-Acheul</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Créée après la Première Guerre mondiale dans le prolongement du cimetière Saint-Acheul ancien, entre  1921 et 1935.
-Cimetière militaire
-Ce cimetière militaire français d'1,5 ha rassemble :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Cimetière_Saint-Acheul</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_Saint-Acheul</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>La nécropole nationale de Saint-Acheul</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Cimetière militaire</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce cimetière militaire français d'1,5 ha rassemble :
 2 739 tombes individuelles de soldats décédés dans les hôpitaux militaires de la ville d'Amiens pendant la Grande Guerre;
 un carré musulman (220 tombes);
 un carré belge (10 tombes),
 un carré britannique (12 tombes);
-une tombe russe[2].
+une tombe russe.
 			Vue partielle
 			Carré musulman
 			Tombes de soldats belges
 La nécropole nationale de Saint-Acheul possède également un monument aux morts.
-Monument aux morts du cimetière militaire
-Le monument aux morts, commande du Souvenir français, est une œuvre du sculpteur Albert Roze. Il a été inauguré  le 27 juillet 1924 par le maréchal Joffre. Ce monument de pierre blanche est composé de deux parties : 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Cimetière_Saint-Acheul</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_Saint-Acheul</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>La nécropole nationale de Saint-Acheul</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Monument aux morts du cimetière militaire</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le monument aux morts, commande du Souvenir français, est une œuvre du sculpteur Albert Roze. Il a été inauguré  le 27 juillet 1924 par le maréchal Joffre. Ce monument de pierre blanche est composé de deux parties : 
 une haute borne de pierre blanche surmontée d'une grenade enflammée sculptée. En médaillon le visage sculpté d'un poilu casqué. Au-dessous a été gravée cette inscription :
 « Aux morts pour la Patrie 1914-1918" - Le Souvenir français. »
 Au pied du monument, la sculpture d'une femme éplorée symbolise la France en deuil.
-Une plaque en hommage au sacrifice des FFI morts pour la libération de la ville d'Amiens a été posée devant le monument[3].
+Une plaque en hommage au sacrifice des FFI morts pour la libération de la ville d'Amiens a été posée devant le monument.
 </t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Cimeti%C3%A8re_Saint-Acheul</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Cimetière_Saint-Acheul</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Mort/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_Saint-Acheul</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Le cimetière Saint-Acheul nouveau</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Il a été créé en 1920 sur une superficie de 7,2 ha. Il abrite un carré juif.
 Personnalités inhumées :
